--- a/results/Comparison 2006(1) v 2004(1).xlsx
+++ b/results/Comparison 2006(1) v 2004(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159C0309-62A1-824D-AE81-2117A4AAEAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A11A47C-C8EC-084E-8D72-2B151A707722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9080" yWindow="4660" windowWidth="27640" windowHeight="16940" xr2:uid="{899DAD3E-8717-1F45-8FBC-A32EFFA79D59}"/>
+    <workbookView xWindow="21500" yWindow="5740" windowWidth="27640" windowHeight="16940" xr2:uid="{899DAD3E-8717-1F45-8FBC-A32EFFA79D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="70">
   <si>
     <t>HOUSE SEAT</t>
   </si>
@@ -260,6 +260,18 @@
   <si>
     <t>ΔREP</t>
   </si>
+  <si>
+    <t>+ REP</t>
+  </si>
+  <si>
+    <t>+ DEM</t>
+  </si>
+  <si>
+    <t>2006 thru 500 seats:</t>
+  </si>
+  <si>
+    <t>2004 thru 500 seats:</t>
+  </si>
 </sst>
 </file>
 
@@ -296,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -313,11 +325,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -328,6 +402,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,13 +732,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA8D37D-7E9E-2A45-9FAF-5DEBDBE60737}">
-  <dimension ref="A1:N307"/>
+  <dimension ref="A1:P307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B285" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N69" sqref="N69"/>
+      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -671,7 +757,7 @@
     <col min="12" max="12" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,14 +792,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="3"/>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>436</v>
       </c>
@@ -748,15 +836,19 @@
         <v>2</v>
       </c>
       <c r="L2" s="3"/>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="str">
-        <f>IF(M2&lt;&gt;J2, M2,"")</f>
+      <c r="M2" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="str">
+        <f>IF(O2&lt;&gt;J2, J2,"")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>437</v>
       </c>
@@ -791,15 +883,22 @@
         <v>2</v>
       </c>
       <c r="L3" s="3"/>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" t="str">
-        <f t="shared" ref="N3:N68" si="0">IF(M3&lt;&gt;J3, M3,"")</f>
+      <c r="M3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="14">
+        <f>COUNTIF(J$2:J$66, "DEM")</f>
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P66" si="0">IF(O3&lt;&gt;J3, J3,"")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>438</v>
       </c>
@@ -834,15 +933,22 @@
         <v>2</v>
       </c>
       <c r="L4" s="3"/>
-      <c r="M4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" t="str">
+      <c r="M4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="16">
+        <f>COUNTIF(J$2:J$66, "REP")</f>
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>439</v>
       </c>
@@ -877,15 +983,15 @@
         <v>1</v>
       </c>
       <c r="L5" s="3"/>
-      <c r="M5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" t="str">
+      <c r="O5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>440</v>
       </c>
@@ -920,2595 +1026,2627 @@
         <v>2</v>
       </c>
       <c r="L6" s="3"/>
-      <c r="M6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" t="str">
+      <c r="M6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="0"/>
+        <v>REP</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>441</v>
+      </c>
+      <c r="B7">
+        <v>640155</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.39924599999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.100754</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.39924599999999999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="14">
+        <v>44</v>
+      </c>
+      <c r="O7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>442</v>
+      </c>
+      <c r="B8">
+        <v>638109</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.56814200000000004</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.57894699999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3.1857999999999997E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1.8141999999999998E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="16">
+        <v>21</v>
+      </c>
+      <c r="O8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="0"/>
+        <v>REP</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>443</v>
+      </c>
+      <c r="B9">
+        <v>637934</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.58091099999999996</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.9088999999999998E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.18091099999999999</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="O9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>441</v>
-      </c>
-      <c r="B7">
-        <v>640155</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>444</v>
+      </c>
+      <c r="B10">
+        <v>634248</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.57884800000000003</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.641509</v>
+      </c>
+      <c r="G10" s="2">
+        <v>6.93E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5.0782000000000001E-2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.39924599999999999</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.100754</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.39924599999999999</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" t="str">
+      <c r="L10" s="3"/>
+      <c r="M10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="18">
+        <f>COUNTIF(P$2:P$66, "DEM")</f>
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>442</v>
-      </c>
-      <c r="B8">
-        <v>638109</v>
-      </c>
-      <c r="C8" s="6" t="s">
+    <row r="11" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>445</v>
+      </c>
+      <c r="B11">
+        <v>633003</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.53708500000000003</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.129582</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1.8471000000000001E-2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" s="20">
+        <f>COUNTIF(P$2:P$66, "REP")</f>
+        <v>15</v>
+      </c>
+      <c r="O11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>446</v>
+      </c>
+      <c r="B12">
+        <v>631491</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.41854599999999997</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>8.5212999999999997E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.25187900000000002</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="O12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>447</v>
+      </c>
+      <c r="B13">
+        <v>631011</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.54508699999999999</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.57894699999999999</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5.4912999999999997E-2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4.9129999999999998E-3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="O13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="0"/>
+        <v>REP</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>448</v>
+      </c>
+      <c r="B14">
+        <v>628705</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.48580499999999999</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.10119</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.139651</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="O14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>449</v>
+      </c>
+      <c r="B15">
+        <v>625963</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.57872599999999996</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.254608</v>
+      </c>
+      <c r="H15" s="2">
+        <v>8.7941000000000005E-2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="O15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>450</v>
+      </c>
+      <c r="B16">
+        <v>625540</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.61544299999999996</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.16233500000000001</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5.1223999999999999E-2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="O16" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>451</v>
+      </c>
+      <c r="B17">
+        <v>624841</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.46952899999999997</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G17" s="2">
+        <v>4.0958000000000001E-2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.18381500000000001</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="O17" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>452</v>
+      </c>
+      <c r="B18">
+        <v>624455</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.54780399999999996</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.538462</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2.3625E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4.7803999999999999E-2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="O18" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>453</v>
+      </c>
+      <c r="B19">
+        <v>624069</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>34</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.465781</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.39393899999999998</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5.4017000000000003E-2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>8.3428000000000002E-2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="O19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>454</v>
+      </c>
+      <c r="B20">
+        <v>623198</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>31</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.64707700000000001</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.76666699999999999</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.12711600000000001</v>
+      </c>
+      <c r="H20" s="2">
+        <v>9.4857999999999998E-2</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="O20" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>455</v>
+      </c>
+      <c r="B21">
+        <v>622830</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.60922299999999996</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G21" s="2">
+        <v>9.0776999999999997E-2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>9.2230000000000003E-3</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.111111</v>
+      </c>
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="O21" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>456</v>
+      </c>
+      <c r="B22">
+        <v>622610</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>55</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.57884800000000003</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.62963000000000002</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5.7515999999999998E-2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>3.9334000000000001E-2</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="O22" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>457</v>
+      </c>
+      <c r="B23">
+        <v>622493</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.60704199999999997</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.22629199999999999</v>
+      </c>
+      <c r="H23" s="2">
+        <v>5.9624999999999997E-2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="O23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="0"/>
+        <v>REP</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>458</v>
+      </c>
+      <c r="B24">
+        <v>621080</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.57567599999999997</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.14710500000000001</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.289962</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="J24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="O24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>459</v>
+      </c>
+      <c r="B25">
+        <v>618037</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.51350600000000002</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.272727</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.180173</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.26350600000000002</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="O25" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>460</v>
+      </c>
+      <c r="B26">
+        <v>615065</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26">
         <v>19</v>
       </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="E26" s="2">
+        <v>0.52673800000000004</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.38888899999999998</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.105686</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.15831700000000001</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="O26" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>461</v>
+      </c>
+      <c r="B27">
+        <v>611391</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>56</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.57884800000000003</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.61818200000000001</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4.6151999999999999E-2</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2.8295000000000001E-2</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="O27" t="s">
+        <v>14</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>462</v>
+      </c>
+      <c r="B28">
+        <v>608341</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.43914300000000001</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.461538</v>
+      </c>
+      <c r="G28" s="2">
+        <v>6.0857000000000001E-2</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1.0572E-2</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="O28" t="s">
+        <v>14</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>463</v>
+      </c>
+      <c r="B29">
+        <v>606963</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>21</v>
+      </c>
+      <c r="E29" s="2">
         <v>0.56814200000000004</v>
       </c>
-      <c r="F8" s="2">
-        <v>0.57894699999999999</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3.1857999999999997E-2</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1.8141999999999998E-2</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" t="str">
+      <c r="F29" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3.287E-3</v>
+      </c>
+      <c r="H29" s="2">
+        <v>4.4332000000000003E-2</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="O29" t="s">
+        <v>14</v>
+      </c>
+      <c r="P29" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>443</v>
-      </c>
-      <c r="B9">
-        <v>637934</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>464</v>
+      </c>
+      <c r="B30">
+        <v>605980</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.70596899999999996</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.29403099999999999</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.203122</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="O30" t="s">
+        <v>14</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>465</v>
+      </c>
+      <c r="B31">
+        <v>605977</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>35</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.465781</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.41176499999999999</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3.721E-2</v>
+      </c>
+      <c r="H31" s="2">
+        <v>6.5781000000000006E-2</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="O31" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>466</v>
+      </c>
+      <c r="B32">
+        <v>605835</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.51856999999999998</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="2">
+        <v>3.6984999999999997E-2</v>
+      </c>
+      <c r="H32" s="2">
+        <v>7.4125999999999997E-2</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="J32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="O32" t="s">
+        <v>12</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>467</v>
+      </c>
+      <c r="B33">
+        <v>604971</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33">
+        <v>27</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.48580499999999999</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.38461499999999998</v>
+      </c>
+      <c r="G33" s="2">
+        <v>7.8397999999999995E-2</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.115435</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="O33" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>468</v>
+      </c>
+      <c r="B34">
+        <v>603661</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>17</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.52454900000000004</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="G34" s="2">
+        <v>5.3961000000000002E-2</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.112784</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="O34" t="s">
+        <v>12</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>469</v>
+      </c>
+      <c r="B35">
+        <v>603408</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35">
+        <v>32</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.64707700000000001</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.74193500000000001</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.102923</v>
+      </c>
+      <c r="H35" s="2">
+        <v>7.1673000000000001E-2</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="O35" t="s">
+        <v>14</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>470</v>
+      </c>
+      <c r="B36">
+        <v>602357</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36">
         <v>5</v>
       </c>
-      <c r="E9" s="2">
-        <v>0.58091099999999996</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E36" s="2">
+        <v>0.44563599999999998</v>
+      </c>
+      <c r="F36" s="2">
         <v>0.5</v>
       </c>
-      <c r="G9" s="2">
-        <v>1.9088999999999998E-2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.18091099999999999</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="G36" s="2">
+        <v>0.154364</v>
+      </c>
+      <c r="H36" s="2">
+        <v>4.5636000000000003E-2</v>
+      </c>
+      <c r="I36" s="2">
         <v>0.25</v>
       </c>
-      <c r="J9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" t="str">
+      <c r="J36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="O36" t="s">
+        <v>12</v>
+      </c>
+      <c r="P36" t="str">
         <f t="shared" si="0"/>
         <v>REP</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>444</v>
-      </c>
-      <c r="B10">
-        <v>634248</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>54</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.57884800000000003</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.641509</v>
-      </c>
-      <c r="G10" s="2">
-        <v>6.93E-2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5.0782000000000001E-2</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" t="str">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>471</v>
+      </c>
+      <c r="B37">
+        <v>600837</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.51846400000000004</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.55555600000000005</v>
+      </c>
+      <c r="G37" s="2">
+        <v>8.1535999999999997E-2</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1.8464000000000001E-2</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.111111</v>
+      </c>
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="O37" t="s">
+        <v>14</v>
+      </c>
+      <c r="P37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>445</v>
-      </c>
-      <c r="B11">
-        <v>633003</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.53708500000000003</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.129582</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1.8471000000000001E-2</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" t="str">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>472</v>
+      </c>
+      <c r="B38">
+        <v>600569</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>57</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.57884800000000003</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.60714299999999999</v>
+      </c>
+      <c r="G38" s="2">
+        <v>3.5187000000000003E-2</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1.7642999999999999E-2</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38" s="3"/>
+      <c r="O38" t="s">
+        <v>14</v>
+      </c>
+      <c r="P38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>446</v>
-      </c>
-      <c r="B12">
-        <v>631491</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.41854599999999997</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G12" s="2">
-        <v>8.5212999999999997E-2</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.25187900000000002</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" t="str">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>473</v>
+      </c>
+      <c r="B39">
+        <v>600211</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>21</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.54508699999999999</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2.6342000000000001E-2</v>
+      </c>
+      <c r="H39" s="2">
+        <v>2.1277000000000001E-2</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39" s="3"/>
+      <c r="O39" t="s">
+        <v>12</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="0"/>
+        <v>REP</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>474</v>
+      </c>
+      <c r="B40">
+        <v>599207</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.59837799999999997</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.201622</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1.622E-3</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="O40" t="s">
+        <v>14</v>
+      </c>
+      <c r="P40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>447</v>
-      </c>
-      <c r="B13">
-        <v>631011</v>
-      </c>
-      <c r="C13" s="6" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>475</v>
+      </c>
+      <c r="B41">
+        <v>598701</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.42219699999999999</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.42857099999999998</v>
+      </c>
+      <c r="G41" s="2">
+        <v>7.7802999999999997E-2</v>
+      </c>
+      <c r="H41" s="2">
+        <v>4.7197000000000003E-2</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="J41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41">
+        <v>6</v>
+      </c>
+      <c r="L41" s="3"/>
+      <c r="O41" t="s">
+        <v>12</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="0"/>
+        <v>REP</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>476</v>
+      </c>
+      <c r="B42">
+        <v>598016</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42">
+        <v>14</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.52190899999999996</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.538462</v>
+      </c>
+      <c r="G42" s="2">
+        <v>4.9520000000000002E-2</v>
+      </c>
+      <c r="H42" s="2">
+        <v>2.1909000000000001E-2</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42">
+        <v>6</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="O42" t="s">
+        <v>12</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="0"/>
+        <v>REP</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>477</v>
+      </c>
+      <c r="B43">
+        <v>596144</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.47249200000000002</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="G43" s="2">
+        <v>9.7491999999999995E-2</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.222492</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="J43" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43">
+        <v>6</v>
+      </c>
+      <c r="L43" s="3"/>
+      <c r="O43" t="s">
+        <v>12</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>478</v>
+      </c>
+      <c r="B44">
+        <v>590952</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.48601899999999998</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.44444400000000001</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1.3981E-2</v>
+      </c>
+      <c r="H44" s="2">
+        <v>8.6018999999999998E-2</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0.111111</v>
+      </c>
+      <c r="J44" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3"/>
+      <c r="O44" t="s">
+        <v>12</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>479</v>
+      </c>
+      <c r="B45">
+        <v>590123</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45">
+        <v>58</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.57884800000000003</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.59649099999999999</v>
+      </c>
+      <c r="G45" s="2">
+        <v>2.4601000000000001E-2</v>
+      </c>
+      <c r="H45" s="2">
+        <v>7.3590000000000001E-3</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45">
+        <v>6</v>
+      </c>
+      <c r="L45" s="3"/>
+      <c r="O45" t="s">
+        <v>14</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>480</v>
+      </c>
+      <c r="B46">
+        <v>588903</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>36</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.465781</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.42857099999999998</v>
+      </c>
+      <c r="G46" s="2">
+        <v>2.1336999999999998E-2</v>
+      </c>
+      <c r="H46" s="2">
+        <v>4.9114999999999999E-2</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3"/>
+      <c r="O46" t="s">
+        <v>12</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>481</v>
+      </c>
+      <c r="B47">
+        <v>584838</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47">
+        <v>33</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.64707700000000001</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.71875</v>
+      </c>
+      <c r="G47" s="2">
+        <v>8.0195000000000002E-2</v>
+      </c>
+      <c r="H47" s="2">
+        <v>4.9891999999999999E-2</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47">
+        <v>6</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="O47" t="s">
+        <v>14</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>482</v>
+      </c>
+      <c r="B48">
+        <v>583502</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.52673800000000004</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0.42105300000000001</v>
+      </c>
+      <c r="G48" s="2">
+        <v>7.6738000000000001E-2</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0.12673799999999999</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="O48" t="s">
+        <v>12</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>483</v>
+      </c>
+      <c r="B49">
+        <v>582965</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49">
+        <v>28</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.48580499999999999</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0.40740700000000002</v>
+      </c>
+      <c r="G49" s="2">
+        <v>5.7234E-2</v>
+      </c>
+      <c r="H49" s="2">
+        <v>9.2948000000000003E-2</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="O49" t="s">
+        <v>12</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>484</v>
+      </c>
+      <c r="B50">
+        <v>581336</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.54780399999999996</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0.57142899999999996</v>
+      </c>
+      <c r="G50" s="2">
+        <v>5.2195999999999999E-2</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1.4470999999999999E-2</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50">
+        <v>6</v>
+      </c>
+      <c r="L50" s="3"/>
+      <c r="O50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="0"/>
+        <v>REP</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>485</v>
+      </c>
+      <c r="B51">
+        <v>580733</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51">
+        <v>11</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.49412499999999998</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="2">
+        <v>5.1330000000000001E-2</v>
+      </c>
+      <c r="H51" s="2">
+        <v>3.9579000000000003E-2</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51">
+        <v>6</v>
+      </c>
+      <c r="L51" s="3"/>
+      <c r="O51" t="s">
+        <v>12</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="0"/>
+        <v>REP</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>486</v>
+      </c>
+      <c r="B52">
+        <v>580496</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.55487600000000004</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0.11179</v>
+      </c>
+      <c r="H52" s="2">
+        <v>6.7900000000000002E-4</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="J52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52">
+        <v>7</v>
+      </c>
+      <c r="L52" s="3"/>
+      <c r="O52" t="s">
+        <v>12</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="0"/>
+        <v>REP</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>487</v>
+      </c>
+      <c r="B53">
+        <v>580035</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53">
+        <v>59</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.57884800000000003</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.58620700000000003</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1.4373E-2</v>
+      </c>
+      <c r="H53" s="2">
+        <v>2.5769999999999999E-3</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53">
+        <v>7</v>
+      </c>
+      <c r="L53" s="3"/>
+      <c r="O53" t="s">
+        <v>14</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>488</v>
+      </c>
+      <c r="B54">
+        <v>578717</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54">
+        <v>22</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.56814200000000004</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0.57142899999999996</v>
+      </c>
+      <c r="G54" s="2">
+        <v>2.2766999999999999E-2</v>
+      </c>
+      <c r="H54" s="2">
+        <v>2.2686999999999999E-2</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54">
+        <v>8</v>
+      </c>
+      <c r="L54" s="3"/>
+      <c r="O54" t="s">
+        <v>12</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="0"/>
+        <v>REP</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>489</v>
+      </c>
+      <c r="B55">
+        <v>577937</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.52513900000000002</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0.27513900000000002</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.52513900000000002</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="J55" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55">
+        <v>7</v>
+      </c>
+      <c r="L55" s="3"/>
+      <c r="O55" t="s">
+        <v>12</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>490</v>
+      </c>
+      <c r="B56">
+        <v>576199</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.55192399999999997</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0.57142899999999996</v>
+      </c>
+      <c r="G56" s="2">
+        <v>7.3076000000000002E-2</v>
+      </c>
+      <c r="H56" s="2">
+        <v>5.1923999999999998E-2</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="J56" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56">
+        <v>8</v>
+      </c>
+      <c r="L56" s="3"/>
+      <c r="O56" t="s">
+        <v>12</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="0"/>
+        <v>REP</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>491</v>
+      </c>
+      <c r="B57">
+        <v>572766</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57">
+        <v>37</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.465781</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0.44444400000000001</v>
+      </c>
+      <c r="G57" s="2">
+        <v>6.3220000000000004E-3</v>
+      </c>
+      <c r="H57" s="2">
+        <v>3.3348999999999997E-2</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K57">
+        <v>7</v>
+      </c>
+      <c r="L57" s="3"/>
+      <c r="O57" t="s">
+        <v>12</v>
+      </c>
+      <c r="P57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>492</v>
+      </c>
+      <c r="B58">
+        <v>572279</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D58">
+        <v>22</v>
+      </c>
+      <c r="E58" s="2">
         <v>0.54508699999999999</v>
       </c>
-      <c r="F13" s="2">
-        <v>0.57894699999999999</v>
-      </c>
-      <c r="G13" s="2">
-        <v>5.4912999999999997E-2</v>
-      </c>
-      <c r="H13" s="2">
-        <v>4.9129999999999998E-3</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" t="str">
+      <c r="F58" s="2">
+        <v>0.52381</v>
+      </c>
+      <c r="G58" s="2">
+        <v>3.68E-4</v>
+      </c>
+      <c r="H58" s="2">
+        <v>4.5087000000000002E-2</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>12</v>
+      </c>
+      <c r="K58">
+        <v>7</v>
+      </c>
+      <c r="L58" s="3"/>
+      <c r="O58" t="s">
+        <v>12</v>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>493</v>
+      </c>
+      <c r="B59">
+        <v>570286</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59">
+        <v>60</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.57884800000000003</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0.57627099999999998</v>
+      </c>
+      <c r="G59" s="2">
+        <v>4.4860000000000004E-3</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1.2181000000000001E-2</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>12</v>
+      </c>
+      <c r="K59">
+        <v>6</v>
+      </c>
+      <c r="L59" s="3"/>
+      <c r="O59" t="s">
+        <v>14</v>
+      </c>
+      <c r="P59" t="str">
         <f t="shared" si="0"/>
         <v>DEM</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>448</v>
-      </c>
-      <c r="B14">
-        <v>628705</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>26</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.48580499999999999</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.10119</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.139651</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="M14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" t="str">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>494</v>
+      </c>
+      <c r="B60">
+        <v>569137</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60">
+        <v>18</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.52454900000000004</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0.47058800000000001</v>
+      </c>
+      <c r="G60" s="2">
+        <v>2.4549000000000001E-2</v>
+      </c>
+      <c r="H60" s="2">
+        <v>8.0103999999999995E-2</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>12</v>
+      </c>
+      <c r="K60">
+        <v>6</v>
+      </c>
+      <c r="L60" s="3"/>
+      <c r="O60" t="s">
+        <v>12</v>
+      </c>
+      <c r="P60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>449</v>
-      </c>
-      <c r="B15">
-        <v>625963</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>495</v>
+      </c>
+      <c r="B61">
+        <v>568511</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61">
+        <v>13</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.51350600000000002</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0.12889</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.205814</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>12</v>
+      </c>
+      <c r="K61">
         <v>6</v>
       </c>
-      <c r="E15" s="2">
-        <v>0.57872599999999996</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.254608</v>
-      </c>
-      <c r="H15" s="2">
-        <v>8.7941000000000005E-2</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N15" t="str">
+      <c r="L61" s="3"/>
+      <c r="O61" t="s">
+        <v>12</v>
+      </c>
+      <c r="P61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>450</v>
-      </c>
-      <c r="B16">
-        <v>625540</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.61544299999999996</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.16233500000000001</v>
-      </c>
-      <c r="H16" s="2">
-        <v>5.1223999999999999E-2</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="J16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16" s="3"/>
-      <c r="M16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" t="str">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>496</v>
+      </c>
+      <c r="B62">
+        <v>567376</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62">
+        <v>34</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.64707700000000001</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0.69696999999999998</v>
+      </c>
+      <c r="G62" s="2">
+        <v>5.8805000000000003E-2</v>
+      </c>
+      <c r="H62" s="2">
+        <v>2.9392999999999999E-2</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62">
+        <v>6</v>
+      </c>
+      <c r="L62" s="3"/>
+      <c r="O62" t="s">
+        <v>12</v>
+      </c>
+      <c r="P62" t="str">
+        <f t="shared" si="0"/>
+        <v>REP</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>497</v>
+      </c>
+      <c r="B63">
+        <v>566335</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63">
+        <v>15</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.43914300000000001</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0.42857099999999998</v>
+      </c>
+      <c r="G63" s="2">
+        <v>2.7522999999999999E-2</v>
+      </c>
+      <c r="H63" s="2">
+        <v>3.9142999999999997E-2</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>12</v>
+      </c>
+      <c r="K63">
+        <v>6</v>
+      </c>
+      <c r="L63" s="3"/>
+      <c r="O63" t="s">
+        <v>12</v>
+      </c>
+      <c r="P63" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>451</v>
-      </c>
-      <c r="B17">
-        <v>624841</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.46952899999999997</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="G17" s="2">
-        <v>4.0958000000000001E-2</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.18381500000000001</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.16666700000000001</v>
-      </c>
-      <c r="J17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3"/>
-      <c r="M17" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17" t="str">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>498</v>
+      </c>
+      <c r="B64">
+        <v>566175</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.53708500000000003</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0.55555600000000005</v>
+      </c>
+      <c r="G64" s="2">
+        <v>6.2914999999999999E-2</v>
+      </c>
+      <c r="H64" s="2">
+        <v>3.7085E-2</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0.111111</v>
+      </c>
+      <c r="J64" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64">
+        <v>6</v>
+      </c>
+      <c r="L64" s="3"/>
+      <c r="O64" t="s">
+        <v>12</v>
+      </c>
+      <c r="P64" t="str">
+        <f t="shared" si="0"/>
+        <v>REP</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>499</v>
+      </c>
+      <c r="B65">
+        <v>563371</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65">
+        <v>11</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.60922299999999996</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G65" s="2">
+        <v>2.7140000000000001E-2</v>
+      </c>
+      <c r="H65" s="2">
+        <v>6.3769000000000006E-2</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>12</v>
+      </c>
+      <c r="K65">
+        <v>6</v>
+      </c>
+      <c r="L65" s="3"/>
+      <c r="O65" t="s">
+        <v>12</v>
+      </c>
+      <c r="P65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>452</v>
-      </c>
-      <c r="B18">
-        <v>624455</v>
-      </c>
-      <c r="C18" s="6" t="s">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66" s="8">
+        <v>500</v>
+      </c>
+      <c r="B66" s="8">
+        <v>562504</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="8">
         <v>29</v>
       </c>
-      <c r="D18">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.54780399999999996</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.538462</v>
-      </c>
-      <c r="G18" s="2">
-        <v>2.3625E-2</v>
-      </c>
-      <c r="H18" s="2">
-        <v>4.7803999999999999E-2</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18" s="3"/>
-      <c r="M18" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" t="str">
+      <c r="E66" s="11">
+        <v>0.48580499999999999</v>
+      </c>
+      <c r="F66" s="11">
+        <v>0.42857099999999998</v>
+      </c>
+      <c r="G66" s="11">
+        <v>3.7529E-2</v>
+      </c>
+      <c r="H66" s="11">
+        <v>7.2012000000000007E-2</v>
+      </c>
+      <c r="I66" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K66" s="8">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P66" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>453</v>
-      </c>
-      <c r="B19">
-        <v>624069</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19">
-        <v>34</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.465781</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.39393899999999998</v>
-      </c>
-      <c r="G19" s="2">
-        <v>5.4017000000000003E-2</v>
-      </c>
-      <c r="H19" s="2">
-        <v>8.3428000000000002E-2</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>454</v>
-      </c>
-      <c r="B20">
-        <v>623198</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20">
-        <v>31</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.64707700000000001</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.76666699999999999</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.12711600000000001</v>
-      </c>
-      <c r="H20" s="2">
-        <v>9.4857999999999998E-2</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20" s="3"/>
-      <c r="M20" t="s">
-        <v>14</v>
-      </c>
-      <c r="N20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>455</v>
-      </c>
-      <c r="B21">
-        <v>622830</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.60922299999999996</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="G21" s="2">
-        <v>9.0776999999999997E-2</v>
-      </c>
-      <c r="H21" s="2">
-        <v>9.2230000000000003E-3</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.111111</v>
-      </c>
-      <c r="J21" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" t="s">
-        <v>14</v>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>456</v>
-      </c>
-      <c r="B22">
-        <v>622610</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22">
-        <v>55</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.57884800000000003</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.62963000000000002</v>
-      </c>
-      <c r="G22" s="2">
-        <v>5.7515999999999998E-2</v>
-      </c>
-      <c r="H22" s="2">
-        <v>3.9334000000000001E-2</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3"/>
-      <c r="M22" t="s">
-        <v>14</v>
-      </c>
-      <c r="N22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>457</v>
-      </c>
-      <c r="B23">
-        <v>622493</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.60704199999999997</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.22629199999999999</v>
-      </c>
-      <c r="H23" s="2">
-        <v>5.9624999999999997E-2</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="J23" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23">
-        <v>4</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23" t="str">
-        <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>458</v>
-      </c>
-      <c r="B24">
-        <v>621080</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24">
-        <v>7</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.57567599999999997</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.14710500000000001</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0.289962</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0.16666700000000001</v>
-      </c>
-      <c r="J24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24">
-        <v>4</v>
-      </c>
-      <c r="L24" s="3"/>
-      <c r="M24" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>459</v>
-      </c>
-      <c r="B25">
-        <v>618037</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25">
-        <v>12</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.51350600000000002</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.272727</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0.180173</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0.26350600000000002</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25" s="3"/>
-      <c r="M25" t="s">
-        <v>12</v>
-      </c>
-      <c r="N25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>460</v>
-      </c>
-      <c r="B26">
-        <v>615065</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26">
-        <v>19</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.52673800000000004</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.38888899999999998</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.105686</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0.15831700000000001</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3"/>
-      <c r="M26" t="s">
-        <v>12</v>
-      </c>
-      <c r="N26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>461</v>
-      </c>
-      <c r="B27">
-        <v>611391</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27">
-        <v>56</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.57884800000000003</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.61818200000000001</v>
-      </c>
-      <c r="G27" s="2">
-        <v>4.6151999999999999E-2</v>
-      </c>
-      <c r="H27" s="2">
-        <v>2.8295000000000001E-2</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J27" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3"/>
-      <c r="M27" t="s">
-        <v>14</v>
-      </c>
-      <c r="N27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>462</v>
-      </c>
-      <c r="B28">
-        <v>608341</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28">
-        <v>14</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.43914300000000001</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.461538</v>
-      </c>
-      <c r="G28" s="2">
-        <v>6.0857000000000001E-2</v>
-      </c>
-      <c r="H28" s="2">
-        <v>1.0572E-2</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28">
-        <v>4</v>
-      </c>
-      <c r="L28" s="3"/>
-      <c r="M28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>463</v>
-      </c>
-      <c r="B29">
-        <v>606963</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29">
-        <v>21</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.56814200000000004</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G29" s="2">
-        <v>3.287E-3</v>
-      </c>
-      <c r="H29" s="2">
-        <v>4.4332000000000003E-2</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>12</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29" s="3"/>
-      <c r="M29" t="s">
-        <v>14</v>
-      </c>
-      <c r="N29" t="str">
-        <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>464</v>
-      </c>
-      <c r="B30">
-        <v>605980</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30">
-        <v>11</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.70596899999999996</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0.29403099999999999</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0.203122</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J30" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30">
-        <v>4</v>
-      </c>
-      <c r="L30" s="3"/>
-      <c r="M30" t="s">
-        <v>14</v>
-      </c>
-      <c r="N30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>465</v>
-      </c>
-      <c r="B31">
-        <v>605977</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31">
-        <v>35</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0.465781</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0.41176499999999999</v>
-      </c>
-      <c r="G31" s="2">
-        <v>3.721E-2</v>
-      </c>
-      <c r="H31" s="2">
-        <v>6.5781000000000006E-2</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31" s="3"/>
-      <c r="M31" t="s">
-        <v>12</v>
-      </c>
-      <c r="N31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>466</v>
-      </c>
-      <c r="B32">
-        <v>605835</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32">
-        <v>9</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.51856999999999998</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G32" s="2">
-        <v>3.6984999999999997E-2</v>
-      </c>
-      <c r="H32" s="2">
-        <v>7.4125999999999997E-2</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="J32" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3"/>
-      <c r="M32" t="s">
-        <v>12</v>
-      </c>
-      <c r="N32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>467</v>
-      </c>
-      <c r="B33">
-        <v>604971</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33">
-        <v>27</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.48580499999999999</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0.38461499999999998</v>
-      </c>
-      <c r="G33" s="2">
-        <v>7.8397999999999995E-2</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0.115435</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J33" t="s">
-        <v>12</v>
-      </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33" s="3"/>
-      <c r="M33" t="s">
-        <v>12</v>
-      </c>
-      <c r="N33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>468</v>
-      </c>
-      <c r="B34">
-        <v>603661</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34">
-        <v>17</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.52454900000000004</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="G34" s="2">
-        <v>5.3961000000000002E-2</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0.112784</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J34" t="s">
-        <v>12</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34" s="3"/>
-      <c r="M34" t="s">
-        <v>12</v>
-      </c>
-      <c r="N34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>469</v>
-      </c>
-      <c r="B35">
-        <v>603408</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35">
-        <v>32</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.64707700000000001</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0.74193500000000001</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0.102923</v>
-      </c>
-      <c r="H35" s="2">
-        <v>7.1673000000000001E-2</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J35" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35" s="3"/>
-      <c r="M35" t="s">
-        <v>14</v>
-      </c>
-      <c r="N35" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>470</v>
-      </c>
-      <c r="B36">
-        <v>602357</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36">
-        <v>5</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0.44563599999999998</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0.154364</v>
-      </c>
-      <c r="H36" s="2">
-        <v>4.5636000000000003E-2</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="J36" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36" s="3"/>
-      <c r="M36" t="s">
-        <v>12</v>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>471</v>
-      </c>
-      <c r="B37">
-        <v>600837</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37">
-        <v>10</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0.51846400000000004</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0.55555600000000005</v>
-      </c>
-      <c r="G37" s="2">
-        <v>8.1535999999999997E-2</v>
-      </c>
-      <c r="H37" s="2">
-        <v>1.8464000000000001E-2</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0.111111</v>
-      </c>
-      <c r="J37" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37">
-        <v>4</v>
-      </c>
-      <c r="L37" s="3"/>
-      <c r="M37" t="s">
-        <v>14</v>
-      </c>
-      <c r="N37" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>472</v>
-      </c>
-      <c r="B38">
-        <v>600569</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38">
-        <v>57</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0.57884800000000003</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0.60714299999999999</v>
-      </c>
-      <c r="G38" s="2">
-        <v>3.5187000000000003E-2</v>
-      </c>
-      <c r="H38" s="2">
-        <v>1.7642999999999999E-2</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38">
-        <v>4</v>
-      </c>
-      <c r="L38" s="3"/>
-      <c r="M38" t="s">
-        <v>14</v>
-      </c>
-      <c r="N38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>473</v>
-      </c>
-      <c r="B39">
-        <v>600211</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39">
-        <v>21</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0.54508699999999999</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G39" s="2">
-        <v>2.6342000000000001E-2</v>
-      </c>
-      <c r="H39" s="2">
-        <v>2.1277000000000001E-2</v>
-      </c>
-      <c r="I39" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J39" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39">
-        <v>5</v>
-      </c>
-      <c r="L39" s="3"/>
-      <c r="M39" t="s">
-        <v>12</v>
-      </c>
-      <c r="N39" t="str">
-        <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>474</v>
-      </c>
-      <c r="B40">
-        <v>599207</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40">
-        <v>5</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0.59837799999999997</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0.201622</v>
-      </c>
-      <c r="H40" s="2">
-        <v>1.622E-3</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="J40" t="s">
-        <v>14</v>
-      </c>
-      <c r="K40">
-        <v>5</v>
-      </c>
-      <c r="L40" s="3"/>
-      <c r="M40" t="s">
-        <v>14</v>
-      </c>
-      <c r="N40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>475</v>
-      </c>
-      <c r="B41">
-        <v>598701</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41">
-        <v>8</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0.42219699999999999</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0.42857099999999998</v>
-      </c>
-      <c r="G41" s="2">
-        <v>7.7802999999999997E-2</v>
-      </c>
-      <c r="H41" s="2">
-        <v>4.7197000000000003E-2</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0.14285700000000001</v>
-      </c>
-      <c r="J41" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41">
-        <v>6</v>
-      </c>
-      <c r="L41" s="3"/>
-      <c r="M41" t="s">
-        <v>12</v>
-      </c>
-      <c r="N41" t="str">
-        <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>476</v>
-      </c>
-      <c r="B42">
-        <v>598016</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42">
-        <v>14</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0.52190899999999996</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0.538462</v>
-      </c>
-      <c r="G42" s="2">
-        <v>4.9520000000000002E-2</v>
-      </c>
-      <c r="H42" s="2">
-        <v>2.1909000000000001E-2</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J42" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42">
-        <v>6</v>
-      </c>
-      <c r="L42" s="3"/>
-      <c r="M42" t="s">
-        <v>12</v>
-      </c>
-      <c r="N42" t="str">
-        <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>477</v>
-      </c>
-      <c r="B43">
-        <v>596144</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43">
-        <v>8</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0.47249200000000002</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0.28571400000000002</v>
-      </c>
-      <c r="G43" s="2">
-        <v>9.7491999999999995E-2</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0.222492</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0.14285700000000001</v>
-      </c>
-      <c r="J43" t="s">
-        <v>12</v>
-      </c>
-      <c r="K43">
-        <v>6</v>
-      </c>
-      <c r="L43" s="3"/>
-      <c r="M43" t="s">
-        <v>12</v>
-      </c>
-      <c r="N43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>478</v>
-      </c>
-      <c r="B44">
-        <v>590952</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44">
-        <v>10</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0.48601899999999998</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0.44444400000000001</v>
-      </c>
-      <c r="G44" s="2">
-        <v>1.3981E-2</v>
-      </c>
-      <c r="H44" s="2">
-        <v>8.6018999999999998E-2</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0.111111</v>
-      </c>
-      <c r="J44" t="s">
-        <v>12</v>
-      </c>
-      <c r="K44">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3"/>
-      <c r="M44" t="s">
-        <v>12</v>
-      </c>
-      <c r="N44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>479</v>
-      </c>
-      <c r="B45">
-        <v>590123</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45">
-        <v>58</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0.57884800000000003</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0.59649099999999999</v>
-      </c>
-      <c r="G45" s="2">
-        <v>2.4601000000000001E-2</v>
-      </c>
-      <c r="H45" s="2">
-        <v>7.3590000000000001E-3</v>
-      </c>
-      <c r="I45" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J45" t="s">
-        <v>14</v>
-      </c>
-      <c r="K45">
-        <v>6</v>
-      </c>
-      <c r="L45" s="3"/>
-      <c r="M45" t="s">
-        <v>14</v>
-      </c>
-      <c r="N45" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>480</v>
-      </c>
-      <c r="B46">
-        <v>588903</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46">
-        <v>36</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0.465781</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0.42857099999999998</v>
-      </c>
-      <c r="G46" s="2">
-        <v>2.1336999999999998E-2</v>
-      </c>
-      <c r="H46" s="2">
-        <v>4.9114999999999999E-2</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>12</v>
-      </c>
-      <c r="K46">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3"/>
-      <c r="M46" t="s">
-        <v>12</v>
-      </c>
-      <c r="N46" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>481</v>
-      </c>
-      <c r="B47">
-        <v>584838</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47">
-        <v>33</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0.64707700000000001</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0.71875</v>
-      </c>
-      <c r="G47" s="2">
-        <v>8.0195000000000002E-2</v>
-      </c>
-      <c r="H47" s="2">
-        <v>4.9891999999999999E-2</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>14</v>
-      </c>
-      <c r="K47">
-        <v>6</v>
-      </c>
-      <c r="L47" s="3"/>
-      <c r="M47" t="s">
-        <v>14</v>
-      </c>
-      <c r="N47" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>482</v>
-      </c>
-      <c r="B48">
-        <v>583502</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48">
-        <v>20</v>
-      </c>
-      <c r="E48" s="2">
-        <v>0.52673800000000004</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0.42105300000000001</v>
-      </c>
-      <c r="G48" s="2">
-        <v>7.6738000000000001E-2</v>
-      </c>
-      <c r="H48" s="2">
-        <v>0.12673799999999999</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J48" t="s">
-        <v>12</v>
-      </c>
-      <c r="K48">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3"/>
-      <c r="M48" t="s">
-        <v>12</v>
-      </c>
-      <c r="N48" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>483</v>
-      </c>
-      <c r="B49">
-        <v>582965</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D49">
-        <v>28</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0.48580499999999999</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0.40740700000000002</v>
-      </c>
-      <c r="G49" s="2">
-        <v>5.7234E-2</v>
-      </c>
-      <c r="H49" s="2">
-        <v>9.2948000000000003E-2</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K49">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3"/>
-      <c r="M49" t="s">
-        <v>12</v>
-      </c>
-      <c r="N49" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>484</v>
-      </c>
-      <c r="B50">
-        <v>581336</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50">
-        <v>15</v>
-      </c>
-      <c r="E50" s="2">
-        <v>0.54780399999999996</v>
-      </c>
-      <c r="F50" s="2">
-        <v>0.57142899999999996</v>
-      </c>
-      <c r="G50" s="2">
-        <v>5.2195999999999999E-2</v>
-      </c>
-      <c r="H50" s="2">
-        <v>1.4470999999999999E-2</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J50" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50">
-        <v>6</v>
-      </c>
-      <c r="L50" s="3"/>
-      <c r="M50" t="s">
-        <v>12</v>
-      </c>
-      <c r="N50" t="str">
-        <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>485</v>
-      </c>
-      <c r="B51">
-        <v>580733</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51">
-        <v>11</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0.49412499999999998</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G51" s="2">
-        <v>5.1330000000000001E-2</v>
-      </c>
-      <c r="H51" s="2">
-        <v>3.9579000000000003E-2</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J51" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51">
-        <v>6</v>
-      </c>
-      <c r="L51" s="3"/>
-      <c r="M51" t="s">
-        <v>12</v>
-      </c>
-      <c r="N51" t="str">
-        <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>486</v>
-      </c>
-      <c r="B52">
-        <v>580496</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52">
-        <v>9</v>
-      </c>
-      <c r="E52" s="2">
-        <v>0.55487600000000004</v>
-      </c>
-      <c r="F52" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="G52" s="2">
-        <v>0.11179</v>
-      </c>
-      <c r="H52" s="2">
-        <v>6.7900000000000002E-4</v>
-      </c>
-      <c r="I52" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="J52" t="s">
-        <v>14</v>
-      </c>
-      <c r="K52">
-        <v>7</v>
-      </c>
-      <c r="L52" s="3"/>
-      <c r="M52" t="s">
-        <v>12</v>
-      </c>
-      <c r="N52" t="str">
-        <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>487</v>
-      </c>
-      <c r="B53">
-        <v>580035</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53">
-        <v>59</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0.57884800000000003</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0.58620700000000003</v>
-      </c>
-      <c r="G53" s="2">
-        <v>1.4373E-2</v>
-      </c>
-      <c r="H53" s="2">
-        <v>2.5769999999999999E-3</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J53" t="s">
-        <v>14</v>
-      </c>
-      <c r="K53">
-        <v>7</v>
-      </c>
-      <c r="L53" s="3"/>
-      <c r="M53" t="s">
-        <v>14</v>
-      </c>
-      <c r="N53" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>488</v>
-      </c>
-      <c r="B54">
-        <v>578717</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54">
-        <v>22</v>
-      </c>
-      <c r="E54" s="2">
-        <v>0.56814200000000004</v>
-      </c>
-      <c r="F54" s="2">
-        <v>0.57142899999999996</v>
-      </c>
-      <c r="G54" s="2">
-        <v>2.2766999999999999E-2</v>
-      </c>
-      <c r="H54" s="2">
-        <v>2.2686999999999999E-2</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J54" t="s">
-        <v>14</v>
-      </c>
-      <c r="K54">
-        <v>8</v>
-      </c>
-      <c r="L54" s="3"/>
-      <c r="M54" t="s">
-        <v>12</v>
-      </c>
-      <c r="N54" t="str">
-        <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>489</v>
-      </c>
-      <c r="B55">
-        <v>577937</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D55">
-        <v>4</v>
-      </c>
-      <c r="E55" s="2">
-        <v>0.52513900000000002</v>
-      </c>
-      <c r="F55" s="2">
-        <v>0</v>
-      </c>
-      <c r="G55" s="2">
-        <v>0.27513900000000002</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0.52513900000000002</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="J55" t="s">
-        <v>12</v>
-      </c>
-      <c r="K55">
-        <v>7</v>
-      </c>
-      <c r="L55" s="3"/>
-      <c r="M55" t="s">
-        <v>12</v>
-      </c>
-      <c r="N55" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>490</v>
-      </c>
-      <c r="B56">
-        <v>576199</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56">
-        <v>8</v>
-      </c>
-      <c r="E56" s="2">
-        <v>0.55192399999999997</v>
-      </c>
-      <c r="F56" s="2">
-        <v>0.57142899999999996</v>
-      </c>
-      <c r="G56" s="2">
-        <v>7.3076000000000002E-2</v>
-      </c>
-      <c r="H56" s="2">
-        <v>5.1923999999999998E-2</v>
-      </c>
-      <c r="I56" s="2">
-        <v>0.14285700000000001</v>
-      </c>
-      <c r="J56" t="s">
-        <v>14</v>
-      </c>
-      <c r="K56">
-        <v>8</v>
-      </c>
-      <c r="L56" s="3"/>
-      <c r="M56" t="s">
-        <v>12</v>
-      </c>
-      <c r="N56" t="str">
-        <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>491</v>
-      </c>
-      <c r="B57">
-        <v>572766</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57">
-        <v>37</v>
-      </c>
-      <c r="E57" s="2">
-        <v>0.465781</v>
-      </c>
-      <c r="F57" s="2">
-        <v>0.44444400000000001</v>
-      </c>
-      <c r="G57" s="2">
-        <v>6.3220000000000004E-3</v>
-      </c>
-      <c r="H57" s="2">
-        <v>3.3348999999999997E-2</v>
-      </c>
-      <c r="I57" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K57">
-        <v>7</v>
-      </c>
-      <c r="L57" s="3"/>
-      <c r="M57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N57" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>492</v>
-      </c>
-      <c r="B58">
-        <v>572279</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58">
-        <v>22</v>
-      </c>
-      <c r="E58" s="2">
-        <v>0.54508699999999999</v>
-      </c>
-      <c r="F58" s="2">
-        <v>0.52381</v>
-      </c>
-      <c r="G58" s="2">
-        <v>3.68E-4</v>
-      </c>
-      <c r="H58" s="2">
-        <v>4.5087000000000002E-2</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>12</v>
-      </c>
-      <c r="K58">
-        <v>7</v>
-      </c>
-      <c r="L58" s="3"/>
-      <c r="M58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N58" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>493</v>
-      </c>
-      <c r="B59">
-        <v>570286</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59">
-        <v>60</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0.57884800000000003</v>
-      </c>
-      <c r="F59" s="2">
-        <v>0.57627099999999998</v>
-      </c>
-      <c r="G59" s="2">
-        <v>4.4860000000000004E-3</v>
-      </c>
-      <c r="H59" s="2">
-        <v>1.2181000000000001E-2</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>12</v>
-      </c>
-      <c r="K59">
-        <v>6</v>
-      </c>
-      <c r="L59" s="3"/>
-      <c r="M59" t="s">
-        <v>14</v>
-      </c>
-      <c r="N59" t="str">
-        <f t="shared" si="0"/>
-        <v>REP</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>494</v>
-      </c>
-      <c r="B60">
-        <v>569137</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60">
-        <v>18</v>
-      </c>
-      <c r="E60" s="2">
-        <v>0.52454900000000004</v>
-      </c>
-      <c r="F60" s="2">
-        <v>0.47058800000000001</v>
-      </c>
-      <c r="G60" s="2">
-        <v>2.4549000000000001E-2</v>
-      </c>
-      <c r="H60" s="2">
-        <v>8.0103999999999995E-2</v>
-      </c>
-      <c r="I60" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J60" t="s">
-        <v>12</v>
-      </c>
-      <c r="K60">
-        <v>6</v>
-      </c>
-      <c r="L60" s="3"/>
-      <c r="M60" t="s">
-        <v>12</v>
-      </c>
-      <c r="N60" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>495</v>
-      </c>
-      <c r="B61">
-        <v>568511</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D61">
-        <v>13</v>
-      </c>
-      <c r="E61" s="2">
-        <v>0.51350600000000002</v>
-      </c>
-      <c r="F61" s="2">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="G61" s="2">
-        <v>0.12889</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0.205814</v>
-      </c>
-      <c r="I61" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>12</v>
-      </c>
-      <c r="K61">
-        <v>6</v>
-      </c>
-      <c r="L61" s="3"/>
-      <c r="M61" t="s">
-        <v>12</v>
-      </c>
-      <c r="N61" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>496</v>
-      </c>
-      <c r="B62">
-        <v>567376</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62">
-        <v>34</v>
-      </c>
-      <c r="E62" s="2">
-        <v>0.64707700000000001</v>
-      </c>
-      <c r="F62" s="2">
-        <v>0.69696999999999998</v>
-      </c>
-      <c r="G62" s="2">
-        <v>5.8805000000000003E-2</v>
-      </c>
-      <c r="H62" s="2">
-        <v>2.9392999999999999E-2</v>
-      </c>
-      <c r="I62" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J62" t="s">
-        <v>14</v>
-      </c>
-      <c r="K62">
-        <v>6</v>
-      </c>
-      <c r="L62" s="3"/>
-      <c r="M62" t="s">
-        <v>12</v>
-      </c>
-      <c r="N62" t="str">
-        <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>497</v>
-      </c>
-      <c r="B63">
-        <v>566335</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D63">
-        <v>15</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0.43914300000000001</v>
-      </c>
-      <c r="F63" s="2">
-        <v>0.42857099999999998</v>
-      </c>
-      <c r="G63" s="2">
-        <v>2.7522999999999999E-2</v>
-      </c>
-      <c r="H63" s="2">
-        <v>3.9142999999999997E-2</v>
-      </c>
-      <c r="I63" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J63" t="s">
-        <v>12</v>
-      </c>
-      <c r="K63">
-        <v>6</v>
-      </c>
-      <c r="L63" s="3"/>
-      <c r="M63" t="s">
-        <v>12</v>
-      </c>
-      <c r="N63" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>498</v>
-      </c>
-      <c r="B64">
-        <v>566175</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64">
-        <v>10</v>
-      </c>
-      <c r="E64" s="2">
-        <v>0.53708500000000003</v>
-      </c>
-      <c r="F64" s="2">
-        <v>0.55555600000000005</v>
-      </c>
-      <c r="G64" s="2">
-        <v>6.2914999999999999E-2</v>
-      </c>
-      <c r="H64" s="2">
-        <v>3.7085E-2</v>
-      </c>
-      <c r="I64" s="2">
-        <v>0.111111</v>
-      </c>
-      <c r="J64" t="s">
-        <v>14</v>
-      </c>
-      <c r="K64">
-        <v>6</v>
-      </c>
-      <c r="L64" s="3"/>
-      <c r="M64" t="s">
-        <v>12</v>
-      </c>
-      <c r="N64" t="str">
-        <f t="shared" si="0"/>
-        <v>DEM</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>499</v>
-      </c>
-      <c r="B65">
-        <v>563371</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65">
-        <v>11</v>
-      </c>
-      <c r="E65" s="2">
-        <v>0.60922299999999996</v>
-      </c>
-      <c r="F65" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="G65" s="2">
-        <v>2.7140000000000001E-2</v>
-      </c>
-      <c r="H65" s="2">
-        <v>6.3769000000000006E-2</v>
-      </c>
-      <c r="I65" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J65" t="s">
-        <v>12</v>
-      </c>
-      <c r="K65">
-        <v>6</v>
-      </c>
-      <c r="L65" s="3"/>
-      <c r="M65" t="s">
-        <v>12</v>
-      </c>
-      <c r="N65" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>500</v>
-      </c>
-      <c r="B66">
-        <v>562504</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66">
-        <v>29</v>
-      </c>
-      <c r="E66" s="2">
-        <v>0.48580499999999999</v>
-      </c>
-      <c r="F66" s="2">
-        <v>0.42857099999999998</v>
-      </c>
-      <c r="G66" s="2">
-        <v>3.7529E-2</v>
-      </c>
-      <c r="H66" s="2">
-        <v>7.2012000000000007E-2</v>
-      </c>
-      <c r="I66" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J66" t="s">
-        <v>12</v>
-      </c>
-      <c r="K66">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3"/>
-      <c r="M66" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N66" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>501</v>
       </c>
@@ -3543,15 +3681,10 @@
         <v>6</v>
       </c>
       <c r="L67" s="3"/>
-      <c r="M67" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N67" s="9">
-        <f>COUNTIF(N$2:N$66, "DEM")</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>502</v>
       </c>
@@ -3586,15 +3719,10 @@
         <v>6</v>
       </c>
       <c r="L68" s="3"/>
-      <c r="M68" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="N68" s="9">
-        <f>COUNTIF(N$2:N$66, "REP")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>503</v>
       </c>
@@ -3630,7 +3758,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>504</v>
       </c>
@@ -3666,7 +3794,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>505</v>
       </c>
@@ -3702,7 +3830,7 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>506</v>
       </c>
@@ -3738,7 +3866,7 @@
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>507</v>
       </c>
@@ -3774,7 +3902,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>508</v>
       </c>
@@ -3810,7 +3938,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>509</v>
       </c>
@@ -3846,7 +3974,7 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>510</v>
       </c>
@@ -3882,7 +4010,7 @@
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>511</v>
       </c>
@@ -3918,7 +4046,7 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>512</v>
       </c>
@@ -3954,7 +4082,7 @@
       </c>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>513</v>
       </c>
@@ -3990,7 +4118,7 @@
       </c>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>514</v>
       </c>
